--- a/M1.xlsx
+++ b/M1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>Fecha de Inicio</t>
   </si>
@@ -29,7 +29,22 @@
     <t>Fecha de Entrega</t>
   </si>
   <si>
-    <t>12:49</t>
+    <t>20:32</t>
+  </si>
+  <si>
+    <t>24056</t>
+  </si>
+  <si>
+    <t>ENVASE ACEITUNAS OFERTA ULTRA DELGADO 15x15 0,5 mm</t>
+  </si>
+  <si>
+    <t>23900</t>
+  </si>
+  <si>
+    <t>10-04-2018</t>
+  </si>
+  <si>
+    <t>01:00</t>
   </si>
   <si>
     <t>24054</t>
@@ -44,21 +59,6 @@
     <t>11-04-2018</t>
   </si>
   <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>24056</t>
-  </si>
-  <si>
-    <t>ENVASE ACEITUNAS OFERTA ULTRA DELGADO 15x15 0,5 mm</t>
-  </si>
-  <si>
-    <t>23900</t>
-  </si>
-  <si>
-    <t>10-04-2018</t>
-  </si>
-  <si>
     <t>13:04</t>
   </si>
   <si>
@@ -86,7 +86,22 @@
     <t>13-04-2018</t>
   </si>
   <si>
-    <t>22:00</t>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>24101</t>
+  </si>
+  <si>
+    <t>ENVASE MAYONESA PAGA 1 LLEVA 2 BASE ROJO 30x20 0,4 mm</t>
+  </si>
+  <si>
+    <t>18100</t>
+  </si>
+  <si>
+    <t>14-04-2018</t>
+  </si>
+  <si>
+    <t>07:12</t>
   </si>
   <si>
     <t>24083</t>
@@ -101,7 +116,7 @@
     <t>15-04-2018</t>
   </si>
   <si>
-    <t>04:00</t>
+    <t>13:42</t>
   </si>
   <si>
     <t>24099</t>
@@ -116,22 +131,19 @@
     <t>16-04-2018</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>24101</t>
-  </si>
-  <si>
-    <t>ENVASE MAYONESA PAGA 1 LLEVA 2 BASE ROJO 30x20 0,4 mm</t>
-  </si>
-  <si>
-    <t>18100</t>
-  </si>
-  <si>
-    <t>14-04-2018</t>
-  </si>
-  <si>
-    <t>19:44</t>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>24106</t>
+  </si>
+  <si>
+    <t>ENVASE NUECES EXPORTACION DOBLE LAMINA 30x20 0,4 mm</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>17-04-2018</t>
   </si>
   <si>
     <t>24105</t>
@@ -146,19 +158,142 @@
     <t>18-04-2018</t>
   </si>
   <si>
-    <t>24106</t>
-  </si>
-  <si>
-    <t>ENVASE NUECES EXPORTACION DOBLE LAMINA 30x20 0,4 mm</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>17-04-2018</t>
-  </si>
-  <si>
-    <t>12:32</t>
+    <t>08:27</t>
+  </si>
+  <si>
+    <t>24127</t>
+  </si>
+  <si>
+    <t>ENVASE CEBOLLINES EXPORTACION MULTICAPA 20x40 0,2 mm</t>
+  </si>
+  <si>
+    <t>14200</t>
+  </si>
+  <si>
+    <t>22-04-2018</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>24137</t>
+  </si>
+  <si>
+    <t>ENVASE PAPAS FRITAS ESPECIAL ULTRA DELGADO 20x25 0,2 mm</t>
+  </si>
+  <si>
+    <t>20400</t>
+  </si>
+  <si>
+    <t>23-04-2018</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>24123</t>
+  </si>
+  <si>
+    <t>ENVASE GALLETAS PAGA 1 LLEVA 2 BASE AMARILLO 15x15 0,1 mm</t>
+  </si>
+  <si>
+    <t>22300</t>
+  </si>
+  <si>
+    <t>24-04-2018</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>24134</t>
+  </si>
+  <si>
+    <t>ENVASE RAMITAS BAJAS CALORIAS MULTILAMINADO 20x25 0,2 mm</t>
+  </si>
+  <si>
+    <t>02-05-2018</t>
+  </si>
+  <si>
+    <t>24141</t>
+  </si>
+  <si>
+    <t>ENVASE RAMITAS ABRE Y CIERRA DOBLE LAMINA 10x15 0,3 mm</t>
+  </si>
+  <si>
+    <t>17100</t>
+  </si>
+  <si>
+    <t>04-05-2018</t>
+  </si>
+  <si>
+    <t>24131</t>
+  </si>
+  <si>
+    <t>ENVASE ALMENDRAS ESPECIAL CUATRICROMIA 20x40 0,5 mm</t>
+  </si>
+  <si>
+    <t>21400</t>
+  </si>
+  <si>
+    <t>05-05-2018</t>
+  </si>
+  <si>
+    <t>19:54</t>
+  </si>
+  <si>
+    <t>24143</t>
+  </si>
+  <si>
+    <t>ENVASE ALMENDRAS EXPORTACION BASE DORADO 10x22 0,5 mm</t>
+  </si>
+  <si>
+    <t>24600</t>
+  </si>
+  <si>
+    <t>07-05-2018</t>
+  </si>
+  <si>
+    <t>24146</t>
+  </si>
+  <si>
+    <t>ENVASE GALLETAS INSTITUCIONAL TRANSPARENTE 30x20 0,5 mm</t>
+  </si>
+  <si>
+    <t>09-05-2018</t>
+  </si>
+  <si>
+    <t>07:31</t>
+  </si>
+  <si>
+    <t>24147</t>
+  </si>
+  <si>
+    <t>ENVASE GALLETAS INTERNACIONAL OPACO CON VISOR 20x25 0,5 mm</t>
+  </si>
+  <si>
+    <t>8600</t>
+  </si>
+  <si>
+    <t>12-05-2018</t>
+  </si>
+  <si>
+    <t>17:54</t>
+  </si>
+  <si>
+    <t>24158</t>
+  </si>
+  <si>
+    <t>ENVASE CARAMELOS SURTIDOS BAJAS CALORIAS OPACO CON VISOR 10x30 0,4 mm</t>
+  </si>
+  <si>
+    <t>19800</t>
+  </si>
+  <si>
+    <t>14-05-2018</t>
+  </si>
+  <si>
+    <t>05:00</t>
   </si>
   <si>
     <t>24121</t>
@@ -171,147 +306,6 @@
   </si>
   <si>
     <t>19-05-2018</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>24123</t>
-  </si>
-  <si>
-    <t>ENVASE GALLETAS PAGA 1 LLEVA 2 BASE AMARILLO 15x15 0,1 mm</t>
-  </si>
-  <si>
-    <t>22300</t>
-  </si>
-  <si>
-    <t>24-04-2018</t>
-  </si>
-  <si>
-    <t>07:27</t>
-  </si>
-  <si>
-    <t>24127</t>
-  </si>
-  <si>
-    <t>ENVASE CEBOLLINES EXPORTACION MULTICAPA 20x40 0,2 mm</t>
-  </si>
-  <si>
-    <t>14200</t>
-  </si>
-  <si>
-    <t>22-04-2018</t>
-  </si>
-  <si>
-    <t>18:40</t>
-  </si>
-  <si>
-    <t>24131</t>
-  </si>
-  <si>
-    <t>ENVASE ALMENDRAS ESPECIAL CUATRICROMIA 20x40 0,5 mm</t>
-  </si>
-  <si>
-    <t>21400</t>
-  </si>
-  <si>
-    <t>05-05-2018</t>
-  </si>
-  <si>
-    <t>24134</t>
-  </si>
-  <si>
-    <t>ENVASE RAMITAS BAJAS CALORIAS MULTILAMINADO 20x25 0,2 mm</t>
-  </si>
-  <si>
-    <t>02-05-2018</t>
-  </si>
-  <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>24137</t>
-  </si>
-  <si>
-    <t>ENVASE PAPAS FRITAS ESPECIAL ULTRA DELGADO 20x25 0,2 mm</t>
-  </si>
-  <si>
-    <t>20400</t>
-  </si>
-  <si>
-    <t>23-04-2018</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>24141</t>
-  </si>
-  <si>
-    <t>ENVASE RAMITAS ABRE Y CIERRA DOBLE LAMINA 10x15 0,3 mm</t>
-  </si>
-  <si>
-    <t>17100</t>
-  </si>
-  <si>
-    <t>04-05-2018</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>24143</t>
-  </si>
-  <si>
-    <t>ENVASE ALMENDRAS EXPORTACION BASE DORADO 10x22 0,5 mm</t>
-  </si>
-  <si>
-    <t>24600</t>
-  </si>
-  <si>
-    <t>07-05-2018</t>
-  </si>
-  <si>
-    <t>14:31</t>
-  </si>
-  <si>
-    <t>24146</t>
-  </si>
-  <si>
-    <t>ENVASE GALLETAS INSTITUCIONAL TRANSPARENTE 30x20 0,5 mm</t>
-  </si>
-  <si>
-    <t>09-05-2018</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>24147</t>
-  </si>
-  <si>
-    <t>ENVASE GALLETAS INTERNACIONAL OPACO CON VISOR 20x25 0,5 mm</t>
-  </si>
-  <si>
-    <t>8600</t>
-  </si>
-  <si>
-    <t>12-05-2018</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>24158</t>
-  </si>
-  <si>
-    <t>ENVASE CARAMELOS SURTIDOS BAJAS CALORIAS OPACO CON VISOR 10x30 0,4 mm</t>
-  </si>
-  <si>
-    <t>19800</t>
-  </si>
-  <si>
-    <t>14-05-2018</t>
   </si>
 </sst>
 </file>
@@ -441,7 +435,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -594,10 +588,10 @@
         <v>65</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -605,13 +599,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -619,104 +613,104 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/M1.xlsx
+++ b/M1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="196">
   <si>
     <t>Fecha de Inicio</t>
   </si>
@@ -29,7 +29,61 @@
     <t>Fecha de Entrega</t>
   </si>
   <si>
-    <t>08:00</t>
+    <t>Atraso</t>
+  </si>
+  <si>
+    <t>10/04 a las 08:00</t>
+  </si>
+  <si>
+    <t>24020</t>
+  </si>
+  <si>
+    <t>ENVASE PAPAS FRITAS EXPORTACION OPACO CON VISOR 30x20 0,5 mm</t>
+  </si>
+  <si>
+    <t>20800</t>
+  </si>
+  <si>
+    <t>05-04-2018</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10/04 a las 06:16</t>
+  </si>
+  <si>
+    <t>24031</t>
+  </si>
+  <si>
+    <t>ENVASE CEBOLLINES INTERNACIONAL MONOCROMATICO 12x18 0,1 mm</t>
+  </si>
+  <si>
+    <t>13200</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11/04 a las 12:46</t>
+  </si>
+  <si>
+    <t>24039</t>
+  </si>
+  <si>
+    <t>ENVASE MAYONESA PAGA 1 LLEVA 2 BASE SIMPLE 12x30 0,1 mm</t>
+  </si>
+  <si>
+    <t>16100</t>
+  </si>
+  <si>
+    <t>08-04-2018</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11/04 a las 08:43</t>
   </si>
   <si>
     <t>24056</t>
@@ -44,7 +98,10 @@
     <t>10-04-2018</t>
   </si>
   <si>
-    <t>18:58</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11/04 a las 08:31</t>
   </si>
   <si>
     <t>24064</t>
@@ -56,7 +113,10 @@
     <t>21600</t>
   </si>
   <si>
-    <t>23:00</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12/04 a las 07:11</t>
   </si>
   <si>
     <t>24054</t>
@@ -71,7 +131,7 @@
     <t>11-04-2018</t>
   </si>
   <si>
-    <t>10:00</t>
+    <t>12/04 a las 11:43</t>
   </si>
   <si>
     <t>24066</t>
@@ -86,7 +146,10 @@
     <t>12-04-2018</t>
   </si>
   <si>
-    <t>14:19</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12/04 a las 11:04</t>
   </si>
   <si>
     <t>24067</t>
@@ -98,7 +161,7 @@
     <t>8500</t>
   </si>
   <si>
-    <t>20:22</t>
+    <t>13/04 a las 03:16</t>
   </si>
   <si>
     <t>24068</t>
@@ -110,7 +173,7 @@
     <t>11900</t>
   </si>
   <si>
-    <t>02:00</t>
+    <t>13/04 a las 09:09</t>
   </si>
   <si>
     <t>24077</t>
@@ -122,7 +185,7 @@
     <t>12300</t>
   </si>
   <si>
-    <t>06:40</t>
+    <t>13/04 a las 03:13</t>
   </si>
   <si>
     <t>24076</t>
@@ -134,7 +197,7 @@
     <t>13-04-2018</t>
   </si>
   <si>
-    <t>13:00</t>
+    <t>13/04 a las 07:45</t>
   </si>
   <si>
     <t>24081</t>
@@ -146,7 +209,7 @@
     <t>11600</t>
   </si>
   <si>
-    <t>19:30</t>
+    <t>14/04 a las 01:29</t>
   </si>
   <si>
     <t>24088</t>
@@ -158,6 +221,9 @@
     <t>12800</t>
   </si>
   <si>
+    <t>14/04 a las 07:48</t>
+  </si>
+  <si>
     <t>24094</t>
   </si>
   <si>
@@ -167,7 +233,7 @@
     <t>14400</t>
   </si>
   <si>
-    <t>12:07</t>
+    <t>14/04 a las 02:54</t>
   </si>
   <si>
     <t>24097</t>
@@ -179,7 +245,7 @@
     <t>19900</t>
   </si>
   <si>
-    <t>21:18</t>
+    <t>15/04 a las 12:44</t>
   </si>
   <si>
     <t>24101</t>
@@ -194,7 +260,7 @@
     <t>14-04-2018</t>
   </si>
   <si>
-    <t>01:00</t>
+    <t>15/04 a las 09:40</t>
   </si>
   <si>
     <t>24083</t>
@@ -209,7 +275,7 @@
     <t>15-04-2018</t>
   </si>
   <si>
-    <t>12:10</t>
+    <t>15/04 a las 01:37</t>
   </si>
   <si>
     <t>24098</t>
@@ -221,7 +287,7 @@
     <t>22000</t>
   </si>
   <si>
-    <t>18:28</t>
+    <t>16/04 a las 12:28</t>
   </si>
   <si>
     <t>24099</t>
@@ -236,7 +302,7 @@
     <t>16-04-2018</t>
   </si>
   <si>
-    <t>23:48</t>
+    <t>16/04 a las 06:36</t>
   </si>
   <si>
     <t>24106</t>
@@ -251,7 +317,7 @@
     <t>17-04-2018</t>
   </si>
   <si>
-    <t>06:00</t>
+    <t>16/04 a las 11:47</t>
   </si>
   <si>
     <t>24115</t>
@@ -260,7 +326,7 @@
     <t>ENVASE CHOCOLATES NORMAL POLIETILENO 12x30 0,3 mm</t>
   </si>
   <si>
-    <t>12:02</t>
+    <t>16/04 a las 05:51</t>
   </si>
   <si>
     <t>24105</t>
@@ -272,7 +338,10 @@
     <t>18-04-2018</t>
   </si>
   <si>
-    <t>21:56</t>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>16/04 a las 11:43</t>
   </si>
   <si>
     <t>24114</t>
@@ -284,6 +353,9 @@
     <t>19500</t>
   </si>
   <si>
+    <t>17/04 a las 09:21</t>
+  </si>
+  <si>
     <t>24118</t>
   </si>
   <si>
@@ -293,7 +365,7 @@
     <t>8800</t>
   </si>
   <si>
-    <t>09:13</t>
+    <t>17/04 a las 01:41</t>
   </si>
   <si>
     <t>24127</t>
@@ -308,7 +380,10 @@
     <t>22-04-2018</t>
   </si>
   <si>
-    <t>17:35</t>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>17/04 a las 08:42</t>
   </si>
   <si>
     <t>24142</t>
@@ -320,7 +395,10 @@
     <t>16500</t>
   </si>
   <si>
-    <t>03:00</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>18/04 a las 04:51</t>
   </si>
   <si>
     <t>24137</t>
@@ -335,7 +413,7 @@
     <t>23-04-2018</t>
   </si>
   <si>
-    <t>14:20</t>
+    <t>18/04 a las 02:55</t>
   </si>
   <si>
     <t>24123</t>
@@ -350,7 +428,7 @@
     <t>24-04-2018</t>
   </si>
   <si>
-    <t>19:00</t>
+    <t>19/04 a las 01:55</t>
   </si>
   <si>
     <t>24134</t>
@@ -362,6 +440,12 @@
     <t>02-05-2018</t>
   </si>
   <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>19/04 a las 06:28</t>
+  </si>
+  <si>
     <t>24141</t>
   </si>
   <si>
@@ -374,7 +458,10 @@
     <t>04-05-2018</t>
   </si>
   <si>
-    <t>13:52</t>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>19/04 a las 02:54</t>
   </si>
   <si>
     <t>24131</t>
@@ -389,7 +476,7 @@
     <t>05-05-2018</t>
   </si>
   <si>
-    <t>22:00</t>
+    <t>20/04 a las 01:28</t>
   </si>
   <si>
     <t>24133</t>
@@ -401,6 +488,9 @@
     <t>15100</t>
   </si>
   <si>
+    <t>20/04 a las 08:55</t>
+  </si>
+  <si>
     <t>24143</t>
   </si>
   <si>
@@ -413,7 +503,10 @@
     <t>07-05-2018</t>
   </si>
   <si>
-    <t>16:18</t>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>20/04 a las 09:04</t>
   </si>
   <si>
     <t>24146</t>
@@ -425,7 +518,10 @@
     <t>09-05-2018</t>
   </si>
   <si>
-    <t>20:40</t>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>21/04 a las 03:11</t>
   </si>
   <si>
     <t>24147</t>
@@ -440,6 +536,12 @@
     <t>12-05-2018</t>
   </si>
   <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>21/04 a las 07:26</t>
+  </si>
+  <si>
     <t>24149</t>
   </si>
   <si>
@@ -449,7 +551,7 @@
     <t>18700</t>
   </si>
   <si>
-    <t>11:20</t>
+    <t>21/04 a las 04:39</t>
   </si>
   <si>
     <t>24150</t>
@@ -458,7 +560,7 @@
     <t>ENVASE CARAMELOS OFERTA OPACO CON VISOR 10x30 0,5 mm</t>
   </si>
   <si>
-    <t>21:23</t>
+    <t>21/04 a las 09:50</t>
   </si>
   <si>
     <t>24158</t>
@@ -473,6 +575,12 @@
     <t>14-05-2018</t>
   </si>
   <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>22/04 a las 07:37</t>
+  </si>
+  <si>
     <t>24159</t>
   </si>
   <si>
@@ -482,13 +590,16 @@
     <t>8100</t>
   </si>
   <si>
+    <t>22/04 a las 11:37</t>
+  </si>
+  <si>
     <t>24121</t>
   </si>
   <si>
-    <t>ENVASE MAYONESA PAGA 1 LLEVA 2 BASE SIMPLE 12x30 0,1 mm</t>
-  </si>
-  <si>
     <t>19-05-2018</t>
+  </si>
+  <si>
+    <t>-26</t>
   </si>
 </sst>
 </file>
@@ -533,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -555,634 +666,808 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
+      <c r="F6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>39</v>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
+      <c r="F15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" t="s">
         <v>122</v>
-      </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>153</v>
+      </c>
+      <c r="F32" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="F33" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="F34" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>167</v>
+      </c>
+      <c r="F35" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="F36" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>173</v>
+      </c>
+      <c r="F38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/M1.xlsx
+++ b/M1.xlsx
@@ -50,7 +50,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>10/04 a las 06:16</t>
+    <t>10/04 a las 06:15</t>
   </si>
   <si>
     <t>24031</t>
@@ -101,7 +101,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>11/04 a las 08:31</t>
+    <t>11/04 a las 08:30</t>
   </si>
   <si>
     <t>24064</t>
@@ -116,7 +116,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>12/04 a las 07:11</t>
+    <t>12/04 a las 07:10</t>
   </si>
   <si>
     <t>24054</t>
@@ -131,7 +131,7 @@
     <t>11-04-2018</t>
   </si>
   <si>
-    <t>12/04 a las 11:43</t>
+    <t>12/04 a las 11:42</t>
   </si>
   <si>
     <t>24066</t>
@@ -149,7 +149,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>12/04 a las 11:04</t>
+    <t>12/04 a las 11:03</t>
   </si>
   <si>
     <t>24067</t>
@@ -161,7 +161,7 @@
     <t>8500</t>
   </si>
   <si>
-    <t>13/04 a las 03:16</t>
+    <t>13/04 a las 03:15</t>
   </si>
   <si>
     <t>24068</t>
@@ -173,7 +173,7 @@
     <t>11900</t>
   </si>
   <si>
-    <t>13/04 a las 09:09</t>
+    <t>13/04 a las 09:07</t>
   </si>
   <si>
     <t>24077</t>
@@ -185,7 +185,7 @@
     <t>12300</t>
   </si>
   <si>
-    <t>13/04 a las 03:13</t>
+    <t>13/04 a las 03:11</t>
   </si>
   <si>
     <t>24076</t>
@@ -197,7 +197,7 @@
     <t>13-04-2018</t>
   </si>
   <si>
-    <t>13/04 a las 07:45</t>
+    <t>13/04 a las 07:44</t>
   </si>
   <si>
     <t>24081</t>
@@ -209,7 +209,7 @@
     <t>11600</t>
   </si>
   <si>
-    <t>14/04 a las 01:29</t>
+    <t>14/04 a las 01:27</t>
   </si>
   <si>
     <t>24088</t>
@@ -221,7 +221,7 @@
     <t>12800</t>
   </si>
   <si>
-    <t>14/04 a las 07:48</t>
+    <t>14/04 a las 07:46</t>
   </si>
   <si>
     <t>24094</t>
@@ -233,7 +233,7 @@
     <t>14400</t>
   </si>
   <si>
-    <t>14/04 a las 02:54</t>
+    <t>14/04 a las 02:53</t>
   </si>
   <si>
     <t>24097</t>
@@ -245,7 +245,7 @@
     <t>19900</t>
   </si>
   <si>
-    <t>15/04 a las 12:44</t>
+    <t>15/04 a las 12:42</t>
   </si>
   <si>
     <t>24101</t>
@@ -260,7 +260,7 @@
     <t>14-04-2018</t>
   </si>
   <si>
-    <t>15/04 a las 09:40</t>
+    <t>15/04 a las 09:38</t>
   </si>
   <si>
     <t>24083</t>
@@ -275,7 +275,7 @@
     <t>15-04-2018</t>
   </si>
   <si>
-    <t>15/04 a las 01:37</t>
+    <t>15/04 a las 01:35</t>
   </si>
   <si>
     <t>24098</t>
@@ -287,7 +287,7 @@
     <t>22000</t>
   </si>
   <si>
-    <t>16/04 a las 12:28</t>
+    <t>16/04 a las 12:26</t>
   </si>
   <si>
     <t>24099</t>
@@ -302,7 +302,7 @@
     <t>16-04-2018</t>
   </si>
   <si>
-    <t>16/04 a las 06:36</t>
+    <t>16/04 a las 06:33</t>
   </si>
   <si>
     <t>24106</t>
@@ -317,7 +317,7 @@
     <t>17-04-2018</t>
   </si>
   <si>
-    <t>16/04 a las 11:47</t>
+    <t>16/04 a las 11:44</t>
   </si>
   <si>
     <t>24115</t>
@@ -326,7 +326,7 @@
     <t>ENVASE CHOCOLATES NORMAL POLIETILENO 12x30 0,3 mm</t>
   </si>
   <si>
-    <t>16/04 a las 05:51</t>
+    <t>16/04 a las 05:48</t>
   </si>
   <si>
     <t>24105</t>
@@ -341,7 +341,7 @@
     <t>-1</t>
   </si>
   <si>
-    <t>16/04 a las 11:43</t>
+    <t>16/04 a las 11:40</t>
   </si>
   <si>
     <t>24114</t>
@@ -353,7 +353,7 @@
     <t>19500</t>
   </si>
   <si>
-    <t>17/04 a las 09:21</t>
+    <t>17/04 a las 09:18</t>
   </si>
   <si>
     <t>24118</t>
@@ -365,7 +365,7 @@
     <t>8800</t>
   </si>
   <si>
-    <t>17/04 a las 01:41</t>
+    <t>17/04 a las 01:38</t>
   </si>
   <si>
     <t>24127</t>
@@ -383,7 +383,7 @@
     <t>-4</t>
   </si>
   <si>
-    <t>17/04 a las 08:42</t>
+    <t>17/04 a las 08:39</t>
   </si>
   <si>
     <t>24142</t>
@@ -398,7 +398,7 @@
     <t>-3</t>
   </si>
   <si>
-    <t>18/04 a las 04:51</t>
+    <t>18/04 a las 04:47</t>
   </si>
   <si>
     <t>24137</t>
@@ -413,7 +413,7 @@
     <t>23-04-2018</t>
   </si>
   <si>
-    <t>18/04 a las 02:55</t>
+    <t>18/04 a las 02:51</t>
   </si>
   <si>
     <t>24123</t>
@@ -428,7 +428,7 @@
     <t>24-04-2018</t>
   </si>
   <si>
-    <t>19/04 a las 01:55</t>
+    <t>19/04 a las 01:52</t>
   </si>
   <si>
     <t>24134</t>
@@ -443,7 +443,7 @@
     <t>-12</t>
   </si>
   <si>
-    <t>19/04 a las 06:28</t>
+    <t>19/04 a las 06:24</t>
   </si>
   <si>
     <t>24141</t>
@@ -461,7 +461,7 @@
     <t>-14</t>
   </si>
   <si>
-    <t>19/04 a las 02:54</t>
+    <t>19/04 a las 02:50</t>
   </si>
   <si>
     <t>24131</t>
@@ -476,7 +476,7 @@
     <t>05-05-2018</t>
   </si>
   <si>
-    <t>20/04 a las 01:28</t>
+    <t>20/04 a las 01:24</t>
   </si>
   <si>
     <t>24133</t>
@@ -488,7 +488,7 @@
     <t>15100</t>
   </si>
   <si>
-    <t>20/04 a las 08:55</t>
+    <t>20/04 a las 08:51</t>
   </si>
   <si>
     <t>24143</t>
@@ -506,7 +506,7 @@
     <t>-16</t>
   </si>
   <si>
-    <t>20/04 a las 09:04</t>
+    <t>20/04 a las 08:59</t>
   </si>
   <si>
     <t>24146</t>
@@ -521,7 +521,7 @@
     <t>-17</t>
   </si>
   <si>
-    <t>21/04 a las 03:11</t>
+    <t>21/04 a las 03:06</t>
   </si>
   <si>
     <t>24147</t>
@@ -539,7 +539,7 @@
     <t>-20</t>
   </si>
   <si>
-    <t>21/04 a las 07:26</t>
+    <t>21/04 a las 07:21</t>
   </si>
   <si>
     <t>24149</t>
@@ -551,7 +551,7 @@
     <t>18700</t>
   </si>
   <si>
-    <t>21/04 a las 04:39</t>
+    <t>21/04 a las 04:35</t>
   </si>
   <si>
     <t>24150</t>
@@ -560,7 +560,7 @@
     <t>ENVASE CARAMELOS OFERTA OPACO CON VISOR 10x30 0,5 mm</t>
   </si>
   <si>
-    <t>21/04 a las 09:50</t>
+    <t>21/04 a las 09:45</t>
   </si>
   <si>
     <t>24158</t>
@@ -578,7 +578,7 @@
     <t>-21</t>
   </si>
   <si>
-    <t>22/04 a las 07:37</t>
+    <t>22/04 a las 07:32</t>
   </si>
   <si>
     <t>24159</t>
@@ -590,7 +590,7 @@
     <t>8100</t>
   </si>
   <si>
-    <t>22/04 a las 11:37</t>
+    <t>22/04 a las 11:32</t>
   </si>
   <si>
     <t>24121</t>
